--- a/data/trans_dic/P04D$aparatos-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.4708713530728411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5208939607784272</v>
+        <v>0.5208939607784273</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.4850190578863353</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4240192072019174</v>
+        <v>0.4232922896110357</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4153076131297714</v>
+        <v>0.4242754997094275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.475872600612061</v>
+        <v>0.4760092781535567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4275221261645765</v>
+        <v>0.4274883990878786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3614125899188093</v>
+        <v>0.362486285824249</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4622132146070678</v>
+        <v>0.461312788031821</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4385047563307736</v>
+        <v>0.4401701954024819</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4045713811104731</v>
+        <v>0.406847709691493</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.481217663573405</v>
+        <v>0.4821362119866949</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.524399535572054</v>
+        <v>0.519289498716924</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5215403652670255</v>
+        <v>0.5224989192083933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5681060033055603</v>
+        <v>0.5684650871581732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5472725326987865</v>
+        <v>0.5449180125419787</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4679745800085472</v>
+        <v>0.4707295625312866</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5423795464277746</v>
+        <v>0.5398713567844965</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5196788269198148</v>
+        <v>0.5175764133822045</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4808361051036418</v>
+        <v>0.4854714802220628</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5400889851405765</v>
+        <v>0.5457550758240242</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5163234280420216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5986845109816648</v>
+        <v>0.5986845109816646</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.572174935759136</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.498792778513407</v>
+        <v>0.4929642885357118</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.463161502023672</v>
+        <v>0.4619239881911874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5481370818677853</v>
+        <v>0.5508941274238122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5128604508994105</v>
+        <v>0.51192151176395</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4326552539834343</v>
+        <v>0.4361455406770772</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5164707945720822</v>
+        <v>0.520275192519822</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5145887676595716</v>
+        <v>0.5208021530205067</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4676850818036507</v>
+        <v>0.4652457432570203</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5496419360141943</v>
+        <v>0.5512270253738798</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5981072419296333</v>
+        <v>0.5958932233331974</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.571101952856487</v>
+        <v>0.5659548871925991</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6444595061020222</v>
+        <v>0.6422591830786444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6279653585628091</v>
+        <v>0.6277124249850656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5458834828602585</v>
+        <v>0.5417165126990807</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5989676309686761</v>
+        <v>0.6061499611125518</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5959622583764063</v>
+        <v>0.5952210978807035</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5455745777721203</v>
+        <v>0.5397048208369118</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6114767295697925</v>
+        <v>0.6166925422319969</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.536309895907725</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6517766325444452</v>
+        <v>0.6517766325444451</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5979974303714626</v>
+        <v>0.6020924763111619</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4874894511708885</v>
+        <v>0.4858331187530369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6179309296018785</v>
+        <v>0.6129597769892288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5604526730108672</v>
+        <v>0.5595780841987543</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4794139751570687</v>
+        <v>0.4781303951767841</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5630118111803942</v>
+        <v>0.5713603540697192</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5999243305730303</v>
+        <v>0.6014103202281893</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4953168679176501</v>
+        <v>0.4965368570973639</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6173032337958847</v>
+        <v>0.6129062424127287</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6795174997216333</v>
+        <v>0.6791719606004677</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5717323737750293</v>
+        <v>0.5721438142691287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7079310616177746</v>
+        <v>0.700673508956318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6801563473817933</v>
+        <v>0.6873589675975903</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6364620371224429</v>
+        <v>0.6344342807026546</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6887753204478568</v>
+        <v>0.6881604814082783</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6689294002350589</v>
+        <v>0.668002342201616</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5722979758424706</v>
+        <v>0.5762467867337886</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6875799435419832</v>
+        <v>0.6896952879026268</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.5454868714512894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6757173841812176</v>
+        <v>0.6757173841812175</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.6414947268792959</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6584412577437019</v>
+        <v>0.6593346438360448</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.516653718959649</v>
+        <v>0.5173272930645305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6472686132457995</v>
+        <v>0.6437616040741091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.605072974624397</v>
+        <v>0.6034420776331452</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4926580978422318</v>
+        <v>0.4893318125232091</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6090315623388082</v>
+        <v>0.6061901118414418</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.647847785884838</v>
+        <v>0.6477028190809117</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5130465091065012</v>
+        <v>0.5156738970948624</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6381408014305393</v>
+        <v>0.6372536960466383</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7170916034701225</v>
+        <v>0.7159567787875367</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5739301179579479</v>
+        <v>0.5758383862530019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7057989888862145</v>
+        <v>0.7032866205115441</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.678675975741755</v>
+        <v>0.6739989251339883</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5604909478995377</v>
+        <v>0.5590515084016612</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6657320185076698</v>
+        <v>0.6665938610030329</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6891202801698929</v>
+        <v>0.6918036882305495</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5597891898207109</v>
+        <v>0.5616016209159365</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6799563921144185</v>
+        <v>0.6792233705374929</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.5889834987588114</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7131050623611532</v>
+        <v>0.7131050623611531</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7059492013224462</v>
+        <v>0.7046632648737927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.539090131444469</v>
+        <v>0.5419505905960357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6416938719954182</v>
+        <v>0.6375723194974303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6726142148851655</v>
+        <v>0.6709631027701112</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5550066091864573</v>
+        <v>0.557805798855132</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.705967229723751</v>
+        <v>0.706941109413614</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6959554763236686</v>
+        <v>0.6959707941713215</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5631703793508408</v>
+        <v>0.5616906465574177</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6914531505195091</v>
+        <v>0.6919653995292303</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7854122926643191</v>
+        <v>0.784776744194453</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6221282810598254</v>
+        <v>0.6182659886977345</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7246230055974925</v>
+        <v>0.7278962835471632</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7427856380257243</v>
+        <v>0.743439069303252</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6315477455524102</v>
+        <v>0.6348865599758521</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7563871549491022</v>
+        <v>0.758842137580227</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7479170847786705</v>
+        <v>0.7478534567245892</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6166893132515888</v>
+        <v>0.615735376609542</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7356403276688275</v>
+        <v>0.7353507514325851</v>
       </c>
     </row>
     <row r="19">
@@ -1209,7 +1209,7 @@
         <v>0.5026175331539461</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.7086214571926056</v>
+        <v>0.7086214571926055</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4910474181518614</v>
+        <v>0.4909427590133752</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4134618858078035</v>
+        <v>0.4161398581847944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5650422279524568</v>
+        <v>0.565083636964571</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.663153761504673</v>
+        <v>0.6650063272551343</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4784192625975733</v>
+        <v>0.4793082854375212</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.688917229114839</v>
+        <v>0.6870138832993613</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6415626563922843</v>
+        <v>0.6393070817104174</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4750760330650414</v>
+        <v>0.4736570036647084</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6747965940207193</v>
+        <v>0.6748298289378498</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6122601890548526</v>
+        <v>0.6164693158210288</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5343107840171768</v>
+        <v>0.5364651802917266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7638628193364473</v>
+        <v>0.7584903953665104</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.720171080463166</v>
+        <v>0.7205260100082704</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.541167578693442</v>
+        <v>0.5411583598040718</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7537219650777228</v>
+        <v>0.7481900472719024</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6946687827036293</v>
+        <v>0.6920929295437283</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5296399349082463</v>
+        <v>0.529180368413766</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7390707001690033</v>
+        <v>0.743252851013358</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.531152232192628</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6389160889532087</v>
+        <v>0.6389160889532086</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6502855243579995</v>
@@ -1309,7 +1309,7 @@
         <v>0.5224971552810882</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6516166631936541</v>
+        <v>0.6516166631936543</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.6414305830448062</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6150556575845251</v>
+        <v>0.6154646001780146</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5141699387174077</v>
+        <v>0.5140072607547801</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6200228195605386</v>
+        <v>0.6203984711516992</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6326847904446784</v>
+        <v>0.634605021925153</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.506104458709762</v>
+        <v>0.5037485695958682</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6373880441495763</v>
+        <v>0.6364630564071311</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6291081547099767</v>
+        <v>0.6299633922167517</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5143438515174946</v>
+        <v>0.5136291584654961</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.634112936391353</v>
+        <v>0.6344076067642177</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6487374919123862</v>
+        <v>0.6491362014390686</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5484345764946567</v>
+        <v>0.5487985997715062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6567185275053531</v>
+        <v>0.6566605826901599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6654455288162893</v>
+        <v>0.6650301693839161</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5384622818573942</v>
+        <v>0.5381901787255481</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6656868893264075</v>
+        <v>0.6652121790126734</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6536146227199137</v>
+        <v>0.6528038979455393</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.539008078637023</v>
+        <v>0.5383984400122033</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6566991567563497</v>
+        <v>0.656159258826457</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>185386</v>
+        <v>185068</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>178205</v>
+        <v>182053</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>261475</v>
+        <v>261550</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>134436</v>
+        <v>134425</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>125430</v>
+        <v>125803</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>225088</v>
+        <v>224650</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>329609</v>
+        <v>330861</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>314007</v>
+        <v>315774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>498755</v>
+        <v>499707</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>229273</v>
+        <v>227039</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>223789</v>
+        <v>224200</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>312154</v>
+        <v>312351</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>172092</v>
+        <v>171352</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>162413</v>
+        <v>163369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>264127</v>
+        <v>262906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>390624</v>
+        <v>389044</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>373200</v>
+        <v>376797</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>559771</v>
+        <v>565644</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>207695</v>
+        <v>205268</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>174717</v>
+        <v>174250</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>264866</v>
+        <v>266199</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>173352</v>
+        <v>173035</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>161066</v>
+        <v>162365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>218541</v>
+        <v>220151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>388209</v>
+        <v>392896</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>350530</v>
+        <v>348702</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>498171</v>
+        <v>499607</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>249049</v>
+        <v>248127</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>215435</v>
+        <v>213493</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>311411</v>
+        <v>310347</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>212259</v>
+        <v>212174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>203218</v>
+        <v>201666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>253449</v>
+        <v>256488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>449598</v>
+        <v>449038</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>408908</v>
+        <v>404509</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>554215</v>
+        <v>558942</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>376389</v>
+        <v>378966</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>254428</v>
+        <v>253563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>290841</v>
+        <v>288501</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>145790</v>
+        <v>145562</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>79642</v>
+        <v>79428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>104601</v>
+        <v>106152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>533659</v>
+        <v>534981</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>340796</v>
+        <v>341635</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>405234</v>
+        <v>402347</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>427699</v>
+        <v>427481</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>298395</v>
+        <v>298610</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>333201</v>
+        <v>329785</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>176928</v>
+        <v>178802</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>105731</v>
+        <v>105394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>127966</v>
+        <v>127852</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>595042</v>
+        <v>594217</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>393762</v>
+        <v>396479</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>451367</v>
+        <v>452756</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>761889</v>
+        <v>762923</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>593965</v>
+        <v>594739</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>728448</v>
+        <v>724502</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>463283</v>
+        <v>462034</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>406874</v>
+        <v>404127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>523122</v>
+        <v>520682</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1245666</v>
+        <v>1245387</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1013531</v>
+        <v>1018721</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1266301</v>
+        <v>1264541</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>829754</v>
+        <v>828441</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>659812</v>
+        <v>662006</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>794320</v>
+        <v>791492</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>519638</v>
+        <v>516057</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>462896</v>
+        <v>461707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>571825</v>
+        <v>572565</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1325024</v>
+        <v>1330184</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1105871</v>
+        <v>1109452</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1349278</v>
+        <v>1347824</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>359094</v>
+        <v>358440</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>334616</v>
+        <v>336392</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>363765</v>
+        <v>361428</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>511454</v>
+        <v>510198</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>409730</v>
+        <v>411797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>585093</v>
+        <v>585900</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>883213</v>
+        <v>883232</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>765320</v>
+        <v>763310</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>965036</v>
+        <v>965751</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>399514</v>
+        <v>399191</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>386159</v>
+        <v>383761</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>410776</v>
+        <v>412631</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>564812</v>
+        <v>565309</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>466236</v>
+        <v>468701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>626880</v>
+        <v>628915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>949155</v>
+        <v>949075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>838050</v>
+        <v>836754</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1026707</v>
+        <v>1026303</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>130627</v>
+        <v>130599</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>118724</v>
+        <v>119492</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>134044</v>
+        <v>134054</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>734284</v>
+        <v>736336</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>517662</v>
+        <v>518624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>580377</v>
+        <v>578773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>881044</v>
+        <v>877946</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>650460</v>
+        <v>648517</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>728562</v>
+        <v>728598</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>162872</v>
+        <v>163991</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>153425</v>
+        <v>154043</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>181210</v>
+        <v>179935</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>797417</v>
+        <v>797810</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>585557</v>
+        <v>585547</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>634972</v>
+        <v>630311</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>953973</v>
+        <v>950436</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>725167</v>
+        <v>724538</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>797957</v>
+        <v>802472</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2100301</v>
+        <v>2101698</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1740836</v>
+        <v>1740286</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2128460</v>
+        <v>2129749</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2243448</v>
+        <v>2250257</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1787356</v>
+        <v>1779036</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2311221</v>
+        <v>2307867</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4379054</v>
+        <v>4385007</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3557880</v>
+        <v>3552936</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4476175</v>
+        <v>4478255</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2215319</v>
+        <v>2216680</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1856847</v>
+        <v>1858079</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2254431</v>
+        <v>2254232</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2359615</v>
+        <v>2358142</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1901631</v>
+        <v>1900670</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2413835</v>
+        <v>2412113</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>4549637</v>
+        <v>4543994</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3728490</v>
+        <v>3724273</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4635610</v>
+        <v>4631799</v>
       </c>
     </row>
     <row r="32">
